--- a/02_output/09_plant_health/root_health_mean_per_plot.xlsx
+++ b/02_output/09_plant_health/root_health_mean_per_plot.xlsx
@@ -502,7 +502,9 @@
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8"/>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
